--- a/CV/网易游戏/个人信息.xlsx
+++ b/CV/网易游戏/个人信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21150" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏测试工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简历编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,7 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机基础知识扎实，熟练使用多种开发工具和开发框架，有网站维护经验，积极参与开源项目，GitHub活跃者，热爱游戏，热爱技术，爱折腾。</t>
+    <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,14 +68,28 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>杭州</t>
+      <t>GJ0400</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016020001740</t>
+    <t>2016070000381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机基础知识扎实，热衷于Java服务器端开发，10年Pokemon游戏经历，5年MOBA游戏经历，积极参与开源项目，GitHub活跃者，热爱游戏，热爱技术，爱折腾。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +124,13 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +164,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -522,13 +542,13 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
     <col min="8" max="8" width="100.625" customWidth="1"/>
@@ -551,13 +571,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -574,17 +594,20 @@
         <v>2017.6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E9" s="4"/>
